--- a/数据更新记录-更新到20200402.xlsx
+++ b/数据更新记录-更新到20200402.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9765"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="644">
   <si>
     <t>日期</t>
   </si>
@@ -2221,12 +2221,44 @@
     <t>notice,wardrobe,index,levels</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>2020.5.16</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>V5.8.1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>V5.9.0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>V6.0.0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice,wardrobe,index,levels</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活节及登录送散件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象之汐、氪金套装及散件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场套装、联盟Chap11套装及关卡、萤光之灵、氪金套装、兑换码散件，愚人节打包活动</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2355,7 +2387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2522,6 +2554,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2558,7 +2593,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2632,6 +2667,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2666,6 +2702,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2841,15 +2878,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
@@ -2859,7 +2896,7 @@
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2876,7 +2913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2887,7 +2924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +2935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2909,7 +2946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -2920,7 +2957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -2931,7 +2968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -2945,7 +2982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2956,7 +2993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -2970,7 +3007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
@@ -2987,7 +3024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
@@ -2998,7 +3035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="54" customHeight="1">
+    <row r="12" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -3012,7 +3049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -3026,7 +3063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -3040,7 +3077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -3054,7 +3091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="54" customHeight="1">
+    <row r="16" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>52</v>
       </c>
@@ -3068,7 +3105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="70.5" customHeight="1">
+    <row r="17" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
@@ -3082,7 +3119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
@@ -3096,7 +3133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3110,7 +3147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="61.5" customHeight="1">
+    <row r="20" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -3124,7 +3161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="53.25" customHeight="1">
+    <row r="21" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
@@ -3141,7 +3178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="53.25" customHeight="1">
+    <row r="22" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
@@ -3155,7 +3192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>74</v>
       </c>
@@ -3169,7 +3206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" customHeight="1">
+    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3183,7 +3220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>80</v>
       </c>
@@ -3197,7 +3234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>83</v>
       </c>
@@ -3207,17 +3244,17 @@
       <c r="C26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="27" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="55"/>
-    </row>
-    <row r="28" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>88</v>
       </c>
@@ -3231,7 +3268,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>91</v>
       </c>
@@ -3245,7 +3282,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>94</v>
       </c>
@@ -3259,7 +3296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="81.75" customHeight="1">
+    <row r="31" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>97</v>
       </c>
@@ -3273,7 +3310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>100</v>
       </c>
@@ -3287,7 +3324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48.75" customHeight="1">
+    <row r="33" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="22" t="s">
         <v>102</v>
       </c>
@@ -3295,7 +3332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="34" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>104</v>
       </c>
@@ -3309,7 +3346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="35" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>107</v>
       </c>
@@ -3323,7 +3360,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="36" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>111</v>
       </c>
@@ -3333,47 +3370,47 @@
       <c r="C36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="37" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="55"/>
-    </row>
-    <row r="38" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="55"/>
-    </row>
-    <row r="39" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="D38" s="56"/>
+    </row>
+    <row r="39" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="55"/>
-    </row>
-    <row r="40" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="55"/>
-    </row>
-    <row r="41" spans="1:5" ht="57" customHeight="1">
+      <c r="D40" s="56"/>
+    </row>
+    <row r="41" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="23" t="s">
         <v>120</v>
       </c>
@@ -3387,7 +3424,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="42" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7" t="s">
         <v>123</v>
       </c>
@@ -3395,7 +3432,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="43" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>125</v>
       </c>
@@ -3405,20 +3442,20 @@
       <c r="C43" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="65.25" customHeight="1">
+    <row r="44" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="55"/>
-    </row>
-    <row r="45" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="D44" s="56"/>
+    </row>
+    <row r="45" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>129</v>
       </c>
@@ -3432,7 +3469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="46" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7" t="s">
         <v>123</v>
       </c>
@@ -3440,7 +3477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="47" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>131</v>
       </c>
@@ -3454,7 +3491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="48" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>133</v>
       </c>
@@ -3468,7 +3505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="49" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="7" t="s">
         <v>136</v>
       </c>
@@ -3476,7 +3513,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" customHeight="1">
+    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>137</v>
       </c>
@@ -3490,7 +3527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="51" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>140</v>
       </c>
@@ -3504,7 +3541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="79.5" customHeight="1">
+    <row r="52" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>143</v>
       </c>
@@ -3515,7 +3552,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="53" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>145</v>
       </c>
@@ -3529,7 +3566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="54" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="7" t="s">
         <v>148</v>
       </c>
@@ -3537,7 +3574,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="55" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>149</v>
       </c>
@@ -3551,7 +3588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="78.75" customHeight="1">
+    <row r="56" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>152</v>
       </c>
@@ -3565,7 +3602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="57" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>120</v>
       </c>
@@ -3576,7 +3613,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="58" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>155</v>
       </c>
@@ -3590,7 +3627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="73.5" customHeight="1">
+    <row r="59" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>157</v>
       </c>
@@ -3604,7 +3641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="60" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>160</v>
       </c>
@@ -3618,7 +3655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="61" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>163</v>
       </c>
@@ -3632,7 +3669,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="62" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>166</v>
       </c>
@@ -3646,7 +3683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="60" customHeight="1">
+    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>169</v>
       </c>
@@ -3660,7 +3697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="70.5" customHeight="1">
+    <row r="64" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>172</v>
       </c>
@@ -3674,7 +3711,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="75.75" customHeight="1">
+    <row r="65" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>175</v>
       </c>
@@ -3688,7 +3725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>178</v>
       </c>
@@ -3702,7 +3739,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="68.099999999999994" customHeight="1">
+    <row r="67" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>182</v>
       </c>
@@ -3716,7 +3753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="68" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>185</v>
       </c>
@@ -3730,7 +3767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="60" customHeight="1">
+    <row r="69" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>187</v>
       </c>
@@ -3745,7 +3782,7 @@
       </c>
       <c r="E69" s="23"/>
     </row>
-    <row r="70" spans="1:7" ht="51" customHeight="1">
+    <row r="70" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="24" t="s">
         <v>190</v>
       </c>
@@ -3756,7 +3793,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="71" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>193</v>
       </c>
@@ -3770,7 +3807,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="72" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>195</v>
       </c>
@@ -3784,7 +3821,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="73" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>199</v>
       </c>
@@ -3798,7 +3835,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="74" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>203</v>
       </c>
@@ -3812,7 +3849,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="72.95" customHeight="1">
+    <row r="75" spans="1:7" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>205</v>
       </c>
@@ -3826,7 +3863,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="76" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="22" t="s">
         <v>457</v>
       </c>
@@ -3834,7 +3871,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="77" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>458</v>
       </c>
@@ -3848,7 +3885,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="78" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>463</v>
       </c>
@@ -3862,7 +3899,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="79" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>467</v>
       </c>
@@ -3876,7 +3913,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="80" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>471</v>
       </c>
@@ -3891,7 +3928,7 @@
       </c>
       <c r="G80" s="30"/>
     </row>
-    <row r="81" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="81" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>475</v>
       </c>
@@ -3905,7 +3942,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="82" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>479</v>
       </c>
@@ -3919,7 +3956,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="83" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>483</v>
       </c>
@@ -3933,7 +3970,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="84" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>487</v>
       </c>
@@ -3947,7 +3984,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="85" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="s">
         <v>490</v>
       </c>
@@ -3961,7 +3998,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="63" customHeight="1">
+    <row r="86" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>512</v>
       </c>
@@ -3975,7 +4012,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="87" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>515</v>
       </c>
@@ -3989,7 +4026,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="88" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>519</v>
       </c>
@@ -4003,7 +4040,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="89" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>526</v>
       </c>
@@ -4017,7 +4054,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="73.5" customHeight="1">
+    <row r="90" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>527</v>
       </c>
@@ -4034,7 +4071,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="58.5" customHeight="1">
+    <row r="91" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>543</v>
       </c>
@@ -4048,7 +4085,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="92" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>544</v>
       </c>
@@ -4062,7 +4099,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="93" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>542</v>
       </c>
@@ -4076,7 +4113,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="94" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>546</v>
       </c>
@@ -4090,7 +4127,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="95" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>552</v>
       </c>
@@ -4107,7 +4144,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="85.5" customHeight="1">
+    <row r="96" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>554</v>
       </c>
@@ -4121,7 +4158,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="63" customHeight="1">
+    <row r="97" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>565</v>
       </c>
@@ -4138,7 +4175,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="98" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>564</v>
       </c>
@@ -4152,7 +4189,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="66" customHeight="1">
+    <row r="99" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>569</v>
       </c>
@@ -4166,7 +4203,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="100" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>572</v>
       </c>
@@ -4180,7 +4217,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="101" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>575</v>
       </c>
@@ -4194,7 +4231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="102" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>582</v>
       </c>
@@ -4208,7 +4245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="71.25" customHeight="1">
+    <row r="103" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>578</v>
       </c>
@@ -4222,7 +4259,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="57.75" customHeight="1">
+    <row r="104" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>584</v>
       </c>
@@ -4236,7 +4273,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="105" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>588</v>
       </c>
@@ -4250,7 +4287,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="106" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>592</v>
       </c>
@@ -4261,7 +4298,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="107" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>595</v>
       </c>
@@ -4275,7 +4312,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="66.75" customHeight="1">
+    <row r="108" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>599</v>
       </c>
@@ -4286,7 +4323,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="64.5" customHeight="1">
+    <row r="109" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>602</v>
       </c>
@@ -4300,11 +4337,11 @@
         <v>606</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="64.5" customHeight="1">
+    <row r="110" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="55" t="s">
         <v>608</v>
       </c>
       <c r="C110" s="44" t="s">
@@ -4314,10 +4351,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="111" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="45" t="s">
         <v>610</v>
       </c>
+      <c r="B111" s="55"/>
       <c r="C111" s="46" t="s">
         <v>611</v>
       </c>
@@ -4325,10 +4363,11 @@
         <v>613</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="112" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>612</v>
       </c>
+      <c r="B112" s="55"/>
       <c r="C112" s="47" t="s">
         <v>614</v>
       </c>
@@ -4336,7 +4375,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="113" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>615</v>
       </c>
@@ -4350,7 +4389,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="63.75" customHeight="1">
+    <row r="114" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="50" t="s">
         <v>620</v>
       </c>
@@ -4364,7 +4403,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="115" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="51" t="s">
         <v>621</v>
       </c>
@@ -4378,7 +4417,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="58.5" customHeight="1">
+    <row r="116" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52" t="s">
         <v>627</v>
       </c>
@@ -4392,11 +4431,11 @@
         <v>633</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="117" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52" t="s">
         <v>628</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="55" t="s">
         <v>629</v>
       </c>
       <c r="C117" s="52" t="s">
@@ -4406,17 +4445,51 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="62.25" customHeight="1">
+    <row r="118" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="53" t="s">
         <v>632</v>
       </c>
-      <c r="B118" s="53"/>
+      <c r="B118" s="55"/>
       <c r="C118" s="54" t="s">
         <v>634</v>
       </c>
       <c r="D118" s="54" t="s">
         <v>635</v>
       </c>
+    </row>
+    <row r="119" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="55" t="s">
+        <v>636</v>
+      </c>
+      <c r="B119" s="55" t="s">
+        <v>637</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="55"/>
+      <c r="B120" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D120" s="55"/>
+    </row>
+    <row r="121" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="55"/>
+      <c r="B121" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C121" s="55" t="s">
+        <v>643</v>
+      </c>
+      <c r="D121" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4431,7 +4504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4439,7 +4512,7 @@
       <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="6" customWidth="1"/>
@@ -4449,7 +4522,7 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>208</v>
       </c>
@@ -4466,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1">
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -4483,7 +4556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27" customHeight="1">
+    <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>215</v>
       </c>
@@ -4500,7 +4573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1">
+    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>217</v>
       </c>
@@ -4517,7 +4590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1">
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>218</v>
       </c>
@@ -4534,7 +4607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1">
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>220</v>
       </c>
@@ -4551,7 +4624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27" customHeight="1">
+    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>222</v>
       </c>
@@ -4568,7 +4641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27" customHeight="1">
+    <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>224</v>
       </c>
@@ -4585,7 +4658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" customHeight="1">
+    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>226</v>
       </c>
@@ -4602,7 +4675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" customHeight="1">
+    <row r="10" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>227</v>
       </c>
@@ -4619,7 +4692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27" customHeight="1">
+    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>229</v>
       </c>
@@ -4636,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="27" customHeight="1">
+    <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>231</v>
       </c>
@@ -4653,7 +4726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27" customHeight="1">
+    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>232</v>
       </c>
@@ -4670,7 +4743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27" customHeight="1">
+    <row r="14" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>234</v>
       </c>
@@ -4687,7 +4760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27" customHeight="1">
+    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>236</v>
       </c>
@@ -4704,7 +4777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="27" customHeight="1">
+    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>237</v>
       </c>
@@ -4721,7 +4794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27" customHeight="1">
+    <row r="17" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>239</v>
       </c>
@@ -4738,7 +4811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27" customHeight="1">
+    <row r="18" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>240</v>
       </c>
@@ -4755,7 +4828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1">
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>241</v>
       </c>
@@ -4772,7 +4845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27" customHeight="1">
+    <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>242</v>
       </c>
@@ -4789,7 +4862,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27" customHeight="1">
+    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>244</v>
       </c>
@@ -4806,7 +4879,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27" customHeight="1">
+    <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>247</v>
       </c>
@@ -4823,7 +4896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27" customHeight="1">
+    <row r="23" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>249</v>
       </c>
@@ -4840,7 +4913,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27" customHeight="1">
+    <row r="24" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>252</v>
       </c>
@@ -4857,7 +4930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27" customHeight="1">
+    <row r="25" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>254</v>
       </c>
@@ -4874,7 +4947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27" customHeight="1">
+    <row r="26" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>256</v>
       </c>
@@ -4891,7 +4964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27" customHeight="1">
+    <row r="27" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>257</v>
       </c>
@@ -4908,7 +4981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27" customHeight="1">
+    <row r="28" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>258</v>
       </c>
@@ -4925,7 +4998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27" customHeight="1">
+    <row r="29" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>259</v>
       </c>
@@ -4942,7 +5015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27" customHeight="1">
+    <row r="30" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>260</v>
       </c>
@@ -4959,7 +5032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27" customHeight="1">
+    <row r="31" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>262</v>
       </c>
@@ -4976,7 +5049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27" customHeight="1">
+    <row r="32" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>263</v>
       </c>
@@ -4993,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27" customHeight="1">
+    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>264</v>
       </c>
@@ -5010,7 +5083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27" customHeight="1">
+    <row r="34" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>266</v>
       </c>
@@ -5027,7 +5100,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="27" customHeight="1">
+    <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>268</v>
       </c>
@@ -5044,7 +5117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="27" customHeight="1">
+    <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>269</v>
       </c>
@@ -5061,7 +5134,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="27" customHeight="1">
+    <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>270</v>
       </c>
@@ -5078,7 +5151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="27" customHeight="1">
+    <row r="38" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>271</v>
       </c>
@@ -5095,7 +5168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27" customHeight="1">
+    <row r="39" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>272</v>
       </c>
@@ -5112,7 +5185,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27" customHeight="1">
+    <row r="40" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>273</v>
       </c>
@@ -5129,7 +5202,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" customHeight="1">
+    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>275</v>
       </c>
@@ -5146,7 +5219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27" customHeight="1">
+    <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>276</v>
       </c>
@@ -5163,7 +5236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="27" customHeight="1">
+    <row r="43" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>278</v>
       </c>
@@ -5180,7 +5253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27" customHeight="1">
+    <row r="44" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>279</v>
       </c>
@@ -5197,7 +5270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="27" customHeight="1">
+    <row r="45" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>280</v>
       </c>
@@ -5214,7 +5287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="27" customHeight="1">
+    <row r="46" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>281</v>
       </c>
@@ -5231,7 +5304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="27" customHeight="1">
+    <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>282</v>
       </c>
@@ -5248,7 +5321,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="27" customHeight="1">
+    <row r="48" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>283</v>
       </c>
@@ -5265,7 +5338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="27" customHeight="1">
+    <row r="49" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>285</v>
       </c>
@@ -5282,7 +5355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="27" customHeight="1">
+    <row r="50" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>286</v>
       </c>
@@ -5299,7 +5372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="27" customHeight="1">
+    <row r="51" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>287</v>
       </c>
@@ -5316,7 +5389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27" customHeight="1">
+    <row r="52" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>288</v>
       </c>
@@ -5333,7 +5406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" customHeight="1">
+    <row r="53" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>289</v>
       </c>
@@ -5350,7 +5423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1">
+    <row r="54" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>290</v>
       </c>
@@ -5367,7 +5440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27" customHeight="1">
+    <row r="55" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>292</v>
       </c>
@@ -5384,7 +5457,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27" customHeight="1">
+    <row r="56" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>494</v>
       </c>
@@ -5401,7 +5474,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27" customHeight="1">
+    <row r="57" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>496</v>
       </c>
@@ -5418,7 +5491,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="27" customHeight="1">
+    <row r="58" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>501</v>
       </c>
@@ -5435,7 +5508,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27" customHeight="1">
+    <row r="59" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>510</v>
       </c>
@@ -5452,7 +5525,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" customHeight="1">
+    <row r="60" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>537</v>
       </c>
@@ -5477,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5485,7 +5558,7 @@
       <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
@@ -5493,7 +5566,7 @@
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>294</v>
       </c>
@@ -5507,8 +5580,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
         <v>298</v>
       </c>
       <c r="B2" s="28">
@@ -5521,8 +5594,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A3" s="56"/>
+    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="57"/>
       <c r="B3" s="28">
         <v>2</v>
       </c>
@@ -5533,8 +5606,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A4" s="56"/>
+    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
       <c r="B4" s="28">
         <v>3</v>
       </c>
@@ -5545,8 +5618,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
       <c r="B5" s="28">
         <v>4</v>
       </c>
@@ -5557,8 +5630,8 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
         <v>305</v>
       </c>
       <c r="B6" s="15">
@@ -5571,8 +5644,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57"/>
       <c r="B7" s="28">
         <v>2</v>
       </c>
@@ -5583,8 +5656,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="57"/>
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -5595,8 +5668,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A9" s="56"/>
+    <row r="9" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57"/>
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -5607,7 +5680,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="65.099999999999994" customHeight="1">
+    <row r="10" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>314</v>
       </c>
@@ -5621,8 +5694,8 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
         <v>317</v>
       </c>
       <c r="B11" s="11">
@@ -5635,8 +5708,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A12" s="56"/>
+    <row r="12" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="57"/>
       <c r="B12" s="13">
         <v>2</v>
       </c>
@@ -5647,8 +5720,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
         <v>322</v>
       </c>
       <c r="B13" s="28">
@@ -5661,8 +5734,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A14" s="56"/>
+    <row r="14" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
       <c r="B14" s="28">
         <v>2</v>
       </c>
@@ -5673,8 +5746,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" customHeight="1">
-      <c r="A15" s="56" t="s">
+    <row r="15" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
         <v>327</v>
       </c>
       <c r="B15" s="28">
@@ -5687,8 +5760,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" customHeight="1">
-      <c r="A16" s="56"/>
+    <row r="16" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="57"/>
       <c r="B16" s="28">
         <v>2</v>
       </c>
@@ -5699,8 +5772,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A17" s="56"/>
+    <row r="17" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
       <c r="B17" s="28">
         <v>3</v>
       </c>
@@ -5711,8 +5784,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A18" s="56"/>
+    <row r="18" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="57"/>
       <c r="B18" s="13">
         <v>4</v>
       </c>
@@ -5723,8 +5796,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A19" s="56"/>
+    <row r="19" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57"/>
       <c r="B19" s="13">
         <v>5</v>
       </c>
@@ -5735,8 +5808,8 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
         <v>338</v>
       </c>
       <c r="B20" s="28">
@@ -5749,8 +5822,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A21" s="56"/>
+    <row r="21" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57"/>
       <c r="B21" s="13">
         <v>2</v>
       </c>
@@ -5761,7 +5834,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42.75" customHeight="1">
+    <row r="22" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>343</v>
       </c>
@@ -5775,8 +5848,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
         <v>346</v>
       </c>
       <c r="B23" s="28">
@@ -5789,8 +5862,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A24" s="56"/>
+    <row r="24" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="57"/>
       <c r="B24" s="13">
         <v>2</v>
       </c>
@@ -5801,7 +5874,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="65.099999999999994" customHeight="1">
+    <row r="25" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>351</v>
       </c>
@@ -5815,7 +5888,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="65.099999999999994" customHeight="1">
+    <row r="26" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>354</v>
       </c>
@@ -5829,7 +5902,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="65.099999999999994" customHeight="1">
+    <row r="27" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>357</v>
       </c>
@@ -5843,7 +5916,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="65.099999999999994" customHeight="1">
+    <row r="28" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>360</v>
       </c>
@@ -5857,8 +5930,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="51" customHeight="1">
-      <c r="A29" s="56" t="s">
+    <row r="29" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
         <v>550</v>
       </c>
       <c r="B29" s="28">
@@ -5871,8 +5944,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" customHeight="1">
-      <c r="A30" s="56"/>
+    <row r="30" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="57"/>
       <c r="B30" s="13">
         <v>2</v>
       </c>
@@ -5883,8 +5956,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1">
-      <c r="A31" s="56"/>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="57"/>
       <c r="B31" s="13">
         <v>3</v>
       </c>
@@ -5895,8 +5968,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A32" s="56"/>
+    <row r="32" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="57"/>
       <c r="B32" s="13">
         <v>4</v>
       </c>
@@ -5907,7 +5980,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="65.099999999999994" customHeight="1">
+    <row r="33" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>370</v>
       </c>
@@ -5921,8 +5994,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45" customHeight="1">
-      <c r="A34" s="56" t="s">
+    <row r="34" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="57" t="s">
         <v>373</v>
       </c>
       <c r="B34" s="13">
@@ -5935,8 +6008,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45" customHeight="1">
-      <c r="A35" s="56"/>
+    <row r="35" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="57"/>
       <c r="B35" s="13">
         <v>2</v>
       </c>
@@ -5947,8 +6020,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A36" s="56"/>
+    <row r="36" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="57"/>
       <c r="B36" s="13">
         <v>3</v>
       </c>
@@ -5959,7 +6032,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="65.099999999999994" customHeight="1">
+    <row r="37" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>380</v>
       </c>
@@ -5973,7 +6046,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="65.099999999999994" customHeight="1">
+    <row r="38" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>383</v>
       </c>
@@ -5987,9 +6060,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="65.099999999999994" customHeight="1"/>
-    <row r="40" spans="1:4" ht="65.099999999999994" customHeight="1"/>
-    <row r="41" spans="1:4" ht="65.099999999999994" customHeight="1"/>
+    <row r="39" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A20:A21"/>
@@ -6009,7 +6082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6017,7 +6090,7 @@
       <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -6027,7 +6100,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>208</v>
       </c>
@@ -6071,7 +6144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>396</v>
       </c>
@@ -6103,7 +6176,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>398</v>
       </c>
@@ -6135,7 +6208,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>399</v>
       </c>
@@ -6167,7 +6240,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>401</v>
       </c>
@@ -6199,7 +6272,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>403</v>
       </c>
@@ -6231,7 +6304,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>404</v>
       </c>
@@ -6263,7 +6336,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>406</v>
       </c>
@@ -6295,7 +6368,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>407</v>
       </c>
@@ -6327,7 +6400,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>408</v>
       </c>
@@ -6359,7 +6432,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>409</v>
       </c>
@@ -6391,7 +6464,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>410</v>
       </c>
@@ -6423,7 +6496,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>412</v>
       </c>
@@ -6455,7 +6528,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>413</v>
       </c>
@@ -6487,7 +6560,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>414</v>
       </c>
@@ -6519,7 +6592,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>415</v>
       </c>
@@ -6551,7 +6624,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>416</v>
       </c>
@@ -6583,7 +6656,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>417</v>
       </c>
@@ -6615,7 +6688,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>418</v>
       </c>
@@ -6647,7 +6720,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>419</v>
       </c>
@@ -6679,7 +6752,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>420</v>
       </c>
@@ -6711,7 +6784,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>421</v>
       </c>
@@ -6743,7 +6816,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>422</v>
       </c>
@@ -6775,7 +6848,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>423</v>
       </c>
@@ -6807,7 +6880,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>424</v>
       </c>
@@ -6839,7 +6912,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>231</v>
       </c>
@@ -6871,7 +6944,7 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>425</v>
       </c>
@@ -6903,7 +6976,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>426</v>
       </c>
@@ -6935,7 +7008,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>427</v>
       </c>
@@ -6967,7 +7040,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>428</v>
       </c>
@@ -6999,7 +7072,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>429</v>
       </c>
@@ -7031,7 +7104,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>430</v>
       </c>
@@ -7063,7 +7136,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>431</v>
       </c>
@@ -7095,7 +7168,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>432</v>
       </c>
@@ -7127,7 +7200,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>433</v>
       </c>
@@ -7159,7 +7232,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>434</v>
       </c>
@@ -7191,7 +7264,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>435</v>
       </c>
@@ -7223,7 +7296,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>436</v>
       </c>
@@ -7255,7 +7328,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>437</v>
       </c>
@@ -7287,7 +7360,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>438</v>
       </c>
@@ -7319,7 +7392,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>439</v>
       </c>
@@ -7351,7 +7424,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>440</v>
       </c>
@@ -7383,7 +7456,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>441</v>
       </c>
@@ -7415,7 +7488,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>442</v>
       </c>
@@ -7447,7 +7520,7 @@
       </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>443</v>
       </c>
@@ -7479,7 +7552,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>444</v>
       </c>
@@ -7511,7 +7584,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>445</v>
       </c>
@@ -7543,7 +7616,7 @@
       </c>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>446</v>
       </c>
@@ -7575,7 +7648,7 @@
       </c>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>447</v>
       </c>
@@ -7607,7 +7680,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>448</v>
       </c>
@@ -7639,7 +7712,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>449</v>
       </c>
@@ -7671,7 +7744,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>450</v>
       </c>
@@ -7703,7 +7776,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>451</v>
       </c>
@@ -7735,7 +7808,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>452</v>
       </c>
@@ -7767,7 +7840,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>453</v>
       </c>
@@ -7799,7 +7872,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>454</v>
       </c>
@@ -7831,7 +7904,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>455</v>
       </c>
